--- a/medicine/Sexualité et sexologie/Émétophilie/Émétophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Émétophilie/Émétophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89m%C3%A9tophilie</t>
+          <t>Émétophilie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'émétophilie est une paraphilie marginale dans laquelle un individu est sexuellement excité par la pratique ou la vue du vomi. Elle ne doit pas être confondue avec la douche romaine qui est une pratique sexuelle précise et particulière[1]. Comme moyen de soumission et d'esclavage, ces jeux avec le vomi sont une forme d'humiliation extrême qui servent à rabaisser le sujet soumis radicalement[réf. nécessaire].
-L'émétophilie peut également se caractériser par le simple plaisir de voir quelqu'un vomir, l'aspect sexuel étant de facto écarté ou, du moins, masqué[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'émétophilie est une paraphilie marginale dans laquelle un individu est sexuellement excité par la pratique ou la vue du vomi. Elle ne doit pas être confondue avec la douche romaine qui est une pratique sexuelle précise et particulière. Comme moyen de soumission et d'esclavage, ces jeux avec le vomi sont une forme d'humiliation extrême qui servent à rabaisser le sujet soumis radicalement[réf. nécessaire].
+L'émétophilie peut également se caractériser par le simple plaisir de voir quelqu'un vomir, l'aspect sexuel étant de facto écarté ou, du moins, masqué.
 </t>
         </is>
       </c>
